--- a/database/data/kapKjs.xlsx
+++ b/database/data/kapKjs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDREK\PT SAMUDRA EDUKASI TEKNOLOGI\Backend_Coretaxify\database\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F50506B-AD7B-460F-BA39-3145EC02CC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05F36B8-AE3C-4E78-9041-15D649620FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KAP - KJS - Pembayaran" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="111">
   <si>
     <t>-</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>ket_2</t>
+  </si>
+  <si>
+    <t>411211-100</t>
+  </si>
+  <si>
+    <t>PPN</t>
   </si>
 </sst>
 </file>
@@ -622,20 +628,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z51"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" customWidth="1"/>
     <col min="3" max="3" width="78" customWidth="1"/>
-    <col min="4" max="4" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="45.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>106</v>
       </c>
@@ -646,7 +652,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -657,7 +663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -668,7 +674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -679,7 +685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -690,7 +696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -701,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -712,7 +718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -723,7 +729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -734,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -745,7 +751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -756,7 +762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -767,7 +773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -778,7 +784,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -789,7 +795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -800,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -811,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
@@ -822,7 +828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -833,7 +839,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -844,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -855,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -866,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
@@ -877,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -888,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -899,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -910,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
@@ -921,7 +927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>58</v>
       </c>
@@ -932,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
@@ -943,7 +949,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
@@ -954,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>65</v>
       </c>
@@ -965,7 +971,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -976,7 +982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -987,7 +993,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
@@ -998,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>73</v>
       </c>
@@ -1009,7 +1015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
@@ -1020,7 +1026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>77</v>
       </c>
@@ -1031,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
@@ -1042,7 +1048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>81</v>
       </c>
@@ -1053,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -1064,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>85</v>
       </c>
@@ -1075,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>87</v>
       </c>
@@ -1086,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>89</v>
       </c>
@@ -1097,7 +1103,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>91</v>
       </c>
@@ -1108,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>93</v>
       </c>
@@ -1119,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>95</v>
       </c>
@@ -1152,7 +1158,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>98</v>
       </c>
@@ -1163,7 +1169,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>101</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>103</v>
       </c>
@@ -1185,7 +1191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>104</v>
       </c>
@@ -1196,8 +1202,17 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/data/kapKjs.xlsx
+++ b/database/data/kapKjs.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDREK\PT SAMUDRA EDUKASI TEKNOLOGI\Backend_Coretaxify\database\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05F36B8-AE3C-4E78-9041-15D649620FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46C2882-E9B5-4005-A947-F72504F1E0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KAP - KJS - Pembayaran" sheetId="10" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="y94bue0susICWanviBsQ7WD/h6M64eMpwcVbPLQ2RGo="/>
     </ext>
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
   <si>
     <t>-</t>
   </si>
@@ -358,6 +367,12 @@
   </si>
   <si>
     <t>PPN</t>
+  </si>
+  <si>
+    <t>411121-100</t>
+  </si>
+  <si>
+    <t>PPH21</t>
   </si>
 </sst>
 </file>
@@ -404,12 +419,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,10 +644,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z50"/>
+  <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1213,6 +1229,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
